--- a/issues_and_estimates_data.xlsx
+++ b/issues_and_estimates_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\papers\alhamed-hcomp2020-full-cpp\replication_pack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487462D2-5050-4ECF-8090-292FE352D63F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C934253D-E652-4167-A3DE-CEE78E232BB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{30FD1A44-515E-4B70-B8C6-014F9E90925D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30FD1A44-515E-4B70-B8C6-014F9E90925D}"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="626">
   <si>
     <t>Investigate Dagger2.0 integration for SDK services</t>
   </si>
@@ -3517,6 +3517,99 @@
   <si>
     <t>Auto Quality Class</t>
   </si>
+  <si>
+    <t>https://issues.jboss.org/browse/AEROGEAR-4331</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/AMBARI-24426</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/GORA-622</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/AMBARI-24551</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/BXMSDOC-482</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/JBTIS-1031</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/ENTMQBR-1807</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/FUSEDOC-861</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/BXMSDOC-368</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/IGNITE-10890</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/HIVE-21462</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/JBEAP-5152</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/ENTMQCL-923</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/BXMSDOC-397</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/AEROGEAR-2174</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/BEAM-7542</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/IGNITE-8958</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/AMBARI-24059</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/FUSEDOC-871</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/QPID-6756</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/JBEAP-11450</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/IGNITE-9596</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/AEROGEAR-4319</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/AEROGEAR-4322</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/LOG4J2-2532</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/AEROGEAR-5552</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/AMBARI-23382</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/JBEAP-4256</t>
+  </si>
+  <si>
+    <t>https://issues.apache.org/jira/browse/CALCITE-2738</t>
+  </si>
+  <si>
+    <t>https://issues.jboss.org/browse/WFCORE-2348</t>
+  </si>
+  <si>
+    <t>Issue URL</t>
+  </si>
 </sst>
 </file>
 
@@ -3568,9 +3661,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3885,15 +3976,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF2B9AA-9F2D-4165-98C9-FE9207EBC86D}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -3912,8 +4006,11 @@
       <c r="F1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3932,8 +4029,11 @@
       <c r="F2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3952,8 +4052,11 @@
       <c r="F3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3972,8 +4075,11 @@
       <c r="F4">
         <v>1800</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3992,8 +4098,11 @@
       <c r="F5">
         <v>13200</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4012,8 +4121,11 @@
       <c r="F6">
         <v>4800</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4032,8 +4144,11 @@
       <c r="F7">
         <v>3600</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -4052,8 +4167,11 @@
       <c r="F8">
         <v>43200</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4072,8 +4190,11 @@
       <c r="F9">
         <v>2700</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -4092,8 +4213,11 @@
       <c r="F10">
         <v>7200</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -4112,8 +4236,11 @@
       <c r="F11">
         <v>10620</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -4132,8 +4259,11 @@
       <c r="F12">
         <v>1800</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -4152,8 +4282,11 @@
       <c r="F13">
         <v>1800</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -4172,8 +4305,11 @@
       <c r="F14">
         <v>43200</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -4192,8 +4328,11 @@
       <c r="F15">
         <v>6000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -4212,8 +4351,11 @@
       <c r="F16">
         <v>53400</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -4232,8 +4374,11 @@
       <c r="F17">
         <v>3600</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -4252,8 +4397,11 @@
       <c r="F18">
         <v>16200</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -4272,8 +4420,11 @@
       <c r="F19">
         <v>5400</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4292,8 +4443,11 @@
       <c r="F20">
         <v>12600</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -4312,8 +4466,11 @@
       <c r="F21">
         <v>3600</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -4332,8 +4489,11 @@
       <c r="F22">
         <v>10800</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -4352,8 +4512,11 @@
       <c r="F23">
         <v>1800</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -4372,8 +4535,11 @@
       <c r="F24">
         <v>16500</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -4392,8 +4558,11 @@
       <c r="F25">
         <v>28800</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -4412,8 +4581,11 @@
       <c r="F26">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -4432,8 +4604,11 @@
       <c r="F27">
         <v>28800</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -4452,8 +4627,11 @@
       <c r="F28">
         <v>7200</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -4472,8 +4650,11 @@
       <c r="F29">
         <v>28800</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -4492,8 +4673,11 @@
       <c r="F30">
         <v>1800</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -4511,6 +4695,9 @@
       </c>
       <c r="F31">
         <v>10800</v>
+      </c>
+      <c r="G31" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -4522,7 +4709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F271A3-6745-48B5-9B54-25116C8341C3}">
   <dimension ref="A1:F507"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
